--- a/biology/Zoologie/Helicopis_endymiaena/Helicopis_endymiaena.xlsx
+++ b/biology/Zoologie/Helicopis_endymiaena/Helicopis_endymiaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helicopis endymiaena est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Helicopis.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Helicopis endymiaena a été décrit par Jacob Hübner en 1819 sous le nom de Hexuropteris endymiaena [1].
-Sous-espèce
-Helicopis endymiaena endymiaena présent en Guyane, au Surinam, au Brésil et au Pérou
-Helicopis endymiaena elegans Kaye, 1904; à Trinité-et-Tobago[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helicopis endymiaena a été décrit par Jacob Hübner en 1819 sous le nom de Hexuropteris endymiaena .
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helicopis endymiaena est un papillon blanc aux ailes antérieures bordés de noir et à base ocre, caractérisé par, aux ailes antérieures, une très longue queue pointue et plusieurs plus courtes, noires et une ligne submarginale de points marron sur une bande ocre.
-</t>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Helicopis endymiaena endymiaena présent en Guyane, au Surinam, au Brésil et au Pérou
+Helicopis endymiaena elegans Kaye, 1904; à Trinité-et-Tobago.</t>
         </is>
       </c>
     </row>
@@ -572,10 +590,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helicopis endymiaena est un papillon blanc aux ailes antérieures bordés de noir et à base ocre, caractérisé par, aux ailes antérieures, une très longue queue pointue et plusieurs plus courtes, noires et une ligne submarginale de points marron sur une bande ocre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa biologie est mal connue.
 La principale plante hôte de ses chenilles serait la plante de marais Montrichardia arborescens.
@@ -583,41 +636,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Helicopis_endymiaena</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helicopis_endymiaena</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helicopis endymiaena est présent en Guyane, en Guyana, au Surinam, à Trinité-et-Tobago, en Colombie, au Pérou et au Brésil[1].
-Biotope
-Il réside dans la forêt amazonienne.
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -639,10 +657,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helicopis endymiaena est présent en Guyane, en Guyana, au Surinam, à Trinité-et-Tobago, en Colombie, au Pérou et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicopis_endymiaena</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
